--- a/QUESTÕES/DIR CONSTITUCIONAL 01.xlsx
+++ b/QUESTÕES/DIR CONSTITUCIONAL 01.xlsx
@@ -43,7 +43,7 @@
     <t xml:space="preserve">DIR. CONSTITUCIONAL</t>
   </si>
   <si>
-    <t xml:space="preserve">NACIONALIDADE</t>
+    <t xml:space="preserve">MÓDULO 01</t>
   </si>
   <si>
     <t xml:space="preserve">Analista Judiciário - Área Administrativa] O vínculo jurídico político que liga um indivíduo a um certo e determinado Estado, fazendo deste indivíduo um componente do povo e capacitando-o a exigir sua proteção e sujeitando-o ao cumprimento de deveres impostos é denominado: -  soberania.</t>
@@ -1354,8 +1354,8 @@
   </sheetPr>
   <dimension ref="A1:F241"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A240" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A240" activeCellId="0" sqref="A240"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
